--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3720558.064404756</v>
+        <v>3796087.734069561</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7815592.645458066</v>
+        <v>7815592.645458065</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>314.6536463267108</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>112.3487637335064</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.0992346450739</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>20.93390375121406</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>396.1618938450834</v>
+        <v>120.4844299635537</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>49.70818902708123</v>
       </c>
       <c r="E8" t="n">
-        <v>217.5699682789832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.0036366911899</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>43.60620160013929</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6.348656829618182</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>191.5549554302039</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>79.424132008201</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>101.289814786355</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>61.57244744068251</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>83.41621454905112</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.24398503385504</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>12.20597424318015</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.7568420184993</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0424879565129</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>37.26680864401944</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>123.3569442318737</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>219.9803307982913</v>
       </c>
       <c r="V31" t="n">
-        <v>162.8517323474656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.8530343211901</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2109869119034738</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>25.06391152957078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>213.4911829719343</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>43.12277925285561</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>6.641648079871936</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>109.5988919864502</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>245.4886716206059</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6379015391949</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>197.7655772489801</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2153.726218239669</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>222.942782082032</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.018810322078</v>
+        <v>1822.041796525165</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.018810322078</v>
+        <v>1453.079279584754</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.753111715327</v>
+        <v>1453.079279584754</v>
       </c>
       <c r="E5" t="n">
-        <v>1345.753111715327</v>
+        <v>1067.291026986509</v>
       </c>
       <c r="F5" t="n">
-        <v>934.7672069257198</v>
+        <v>656.3051221969019</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>1395.51153118508</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1395.51153118508</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9958217162123</v>
+        <v>272.5660590645748</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>103.6298761366679</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>1305.426416587999</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W13" t="n">
-        <v>1305.426416587999</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.436865689982</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.644286546452</v>
+        <v>454.2145238948145</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5272,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>3670.82739395877</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>605.0664940687907</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>457.1534004863976</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>457.1534004863976</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>288.9780788062182</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324574</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>755.1831334811264</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,34 +5527,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>638.369141907976</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.946699347402</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>4187.050763584937</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V19" t="n">
-        <v>612.8127116841194</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W19" t="n">
-        <v>612.8127116841194</v>
+        <v>4187.050763584937</v>
       </c>
       <c r="X19" t="n">
-        <v>612.8127116841194</v>
+        <v>4187.050763584937</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>4187.050763584937</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>339.7502131046251</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615138</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.3978353108172</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="C22" t="n">
-        <v>677.4616523829103</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705745</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,10 +5928,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
@@ -5938,22 +5940,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V22" t="n">
-        <v>874.927113122792</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W22" t="n">
-        <v>874.927113122792</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X22" t="n">
-        <v>874.927113122792</v>
+        <v>809.295358296326</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.927113122792</v>
+        <v>588.5027791527958</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>3054.076152669715</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>3361.396285949677</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>3691.25891361371</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916369</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.6741500022181</v>
+        <v>238.3856187516993</v>
       </c>
       <c r="C25" t="n">
-        <v>238.6741500022181</v>
+        <v>238.3856187516993</v>
       </c>
       <c r="D25" t="n">
-        <v>238.6741500022181</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>238.6741500022181</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>238.6741500022181</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>238.6741500022181</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6178,19 +6180,19 @@
         <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324578</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324578</v>
+        <v>420.034083581939</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324578</v>
+        <v>420.034083581939</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324578</v>
+        <v>420.034083581939</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>326.2492756170067</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>940.1463453738954</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3926.121309839312</v>
+        <v>454.2145238948145</v>
       </c>
       <c r="C28" t="n">
-        <v>3757.185126911405</v>
+        <v>285.2783409669076</v>
       </c>
       <c r="D28" t="n">
-        <v>3607.06848749907</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>4625.17649560453</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>4625.17649560453</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>4625.17649560453</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W28" t="n">
-        <v>4335.759325567569</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X28" t="n">
-        <v>4107.769774669552</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y28" t="n">
-        <v>4107.769774669552</v>
+        <v>454.2145238948145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6549,19 +6551,19 @@
         <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1711.385417156675</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3886.516115720546</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C31" t="n">
-        <v>3717.579932792639</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D31" t="n">
-        <v>3717.579932792639</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>3717.579932792639</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294729</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576119</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>4460.650830789677</v>
+        <v>941.8533975675258</v>
       </c>
       <c r="V31" t="n">
-        <v>4296.154131448803</v>
+        <v>687.168909361639</v>
       </c>
       <c r="W31" t="n">
-        <v>4296.154131448803</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="X31" t="n">
-        <v>4068.164580550786</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y31" t="n">
-        <v>4068.164580550786</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128705</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2292.946699347402</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2497.969180129612</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4188.073909669421</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="C34" t="n">
-        <v>4019.137726741515</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>3869.021087329179</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746786</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746786</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014294</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.641454921462</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4636.856039710969</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4636.856039710969</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>4636.856039710969</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W34" t="n">
-        <v>4636.856039710969</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X34" t="n">
-        <v>4408.866488812952</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y34" t="n">
-        <v>4188.073909669421</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,10 +6952,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7017,25 +7019,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3778.208216256918</v>
+        <v>4244.714639971548</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.272033329011</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H37" t="n">
         <v>3459.155393916676</v>
@@ -7120,25 +7122,25 @@
         <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>4724.462387223017</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>4724.462387223017</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U37" t="n">
-        <v>4435.333748436575</v>
+        <v>4534.131810008508</v>
       </c>
       <c r="V37" t="n">
-        <v>4180.649260230688</v>
+        <v>4534.131810008508</v>
       </c>
       <c r="W37" t="n">
-        <v>4180.649260230688</v>
+        <v>4244.714639971548</v>
       </c>
       <c r="X37" t="n">
-        <v>4180.649260230688</v>
+        <v>4244.714639971548</v>
       </c>
       <c r="Y37" t="n">
-        <v>3959.856681087158</v>
+        <v>4244.714639971548</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,22 +7171,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,16 +7241,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,19 +7259,19 @@
         <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.771599890051</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.6648329070714</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C40" t="n">
-        <v>545.6648329070714</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>395.5481934947357</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1492.207535123689</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V40" t="n">
-        <v>1237.523046917802</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W40" t="n">
-        <v>948.1058768808413</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X40" t="n">
-        <v>948.1058768808413</v>
+        <v>792.4568162435045</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.3132977373111</v>
+        <v>571.6642370999743</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>502.7260840420543</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>502.7260840420543</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>502.7260840420543</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>354.8129904596611</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>207.9230429617508</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>1051.027905301125</v>
       </c>
       <c r="W43" t="n">
-        <v>1133.156678913841</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="X43" t="n">
-        <v>905.1671280158241</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="Y43" t="n">
-        <v>684.374548872294</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766204</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.921157035281</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293938</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>643.8194987924333</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.0269196489031</v>
+        <v>245.130185042679</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>414.5002179180832</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139951</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>104.8749102765742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>38.86002301949887</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>52.49733361305232</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498447</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>285.1031356539312</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>360.502686290725</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.86002301949821</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10197,22 +10199,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>242.9997743936046</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>43.65987261462425</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.12263706262929</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>18.73797368291287</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>20.63789864135373</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978191</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720739</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,25 +11381,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>20.63789864135379</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2668161885942</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>60.58268789362413</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>69.48969635933513</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>124.4198406026822</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>190.5651958831455</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>203.1067837875399</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>151.5879951480823</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>136.4094987750322</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>8.858630999713057</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>8.871340411023226</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>111.3486643741929</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>98.19061682651559</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>66.25702160028601</v>
       </c>
       <c r="V31" t="n">
-        <v>89.28591097636243</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.39378677743774</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.7098230716998</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>172.8568984540325</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>72.74616942664306</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>136.7092009290817</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.5957043187054</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>56.89467647692734</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>6.648971703222088</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.194078642742369</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>27.94407814005706</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147617</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687063</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001569</v>
+        <v>-78996.18794001589</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745283</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745284</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227758</v>
+        <v>84081.79050227799</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791743</v>
+        <v>609241.826979174</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.826979174</v>
+        <v>609241.8269791744</v>
       </c>
       <c r="H6" t="n">
         <v>609241.8269791742</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.8269791742</v>
+        <v>609241.8269791743</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.607786581</v>
+        <v>432818.6077865814</v>
       </c>
       <c r="K6" t="n">
+        <v>609241.8269791738</v>
+      </c>
+      <c r="L6" t="n">
+        <v>609241.8269791737</v>
+      </c>
+      <c r="M6" t="n">
+        <v>474440.8117453366</v>
+      </c>
+      <c r="N6" t="n">
+        <v>609241.8269791744</v>
+      </c>
+      <c r="O6" t="n">
         <v>609241.826979174</v>
       </c>
-      <c r="L6" t="n">
-        <v>609241.8269791739</v>
-      </c>
-      <c r="M6" t="n">
-        <v>474440.8117453373</v>
-      </c>
-      <c r="N6" t="n">
-        <v>609241.8269791743</v>
-      </c>
-      <c r="O6" t="n">
-        <v>609241.8269791744</v>
-      </c>
       <c r="P6" t="n">
-        <v>609241.8269791743</v>
+        <v>609241.826979174</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26765,7 +26767,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541004</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26811,25 +26813,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67.27672374555095</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>257.3823369449626</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>11.18263959690387</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.5890945853769</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.62227617571159</v>
+        <v>293.2997400572413</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.885271837006968</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.2516047562942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>304.9748525936017</v>
       </c>
       <c r="E8" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>17.43032595537923</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>182.1034537888979</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>747.6947913160961</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>541.1395634276697</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>588.4784392551034</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>354.1326152325986</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>245.9534379510236</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>203.0727722009916</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>487.142031800311</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36440,7 +36442,7 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>534.3608406099556</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>642.8663885318332</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>189.4354616074375</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594836</v>
@@ -36683,13 +36685,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642231</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507416</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36917,22 +36919,22 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>553.424151444071</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557325</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.1356698477035</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>351.9325470809258</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>479.9728913332275</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37637,10 +37639,10 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>227.7313135728785</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958063</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>353.8324720393667</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3796087.734069561</v>
+        <v>3789070.71917785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>243.6401400797705</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.3487637335064</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>20.93390375121406</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>98.13985960694272</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>120.4844299635537</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>49.70818902708123</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>109.4422623037125</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>43.60620160013929</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.348656829618182</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>79.424132008201</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>83.41621454905112</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.20597424318015</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>139.7568420184993</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>54.27764738768689</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>37.26680864401944</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>219.9803307982913</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.8530343211901</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>213.4911829719343</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.12277925285561</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>245.4886716206059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>197.7655772489801</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2153.726218239669</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.041796525165</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C5" t="n">
-        <v>1453.079279584754</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1453.079279584754</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1067.291026986509</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>656.3051221969019</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1822.041796525165</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1395.51153118508</v>
+        <v>554.3221432721084</v>
       </c>
       <c r="C8" t="n">
-        <v>1395.51153118508</v>
+        <v>185.3596263316967</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>185.3596263316967</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>185.3596263316967</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>178.4141255824932</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>164.4907215210841</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>164.4907215210841</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.111371249201</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092203</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092203</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>97.98965010333345</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>97.98965010333345</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>272.5660590645748</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>103.6298761366679</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383447</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383447</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383447</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>454.2145238948145</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182377</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>3033.644633014775</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>3340.964766294737</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>3670.82739395877</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>755.1831334811264</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>755.1831334811264</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>605.0664940687907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>457.1534004863976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>457.1534004863976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>288.9780788062182</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>755.1831334811264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>755.1831334811264</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.1831334811264</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>638.369141907976</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4271.309566159736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4187.050763584937</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,10 +5731,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,25 +5746,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216475</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>406.8543143225561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>406.8543143225561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333287</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>809.295358296326</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>809.295358296326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>588.5027791527958</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6016,10 +6016,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.3856187516993</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>238.3856187516993</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1133.095250583071</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188996</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="W25" t="n">
-        <v>420.034083581939</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X25" t="n">
-        <v>420.034083581939</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.034083581939</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>454.2145238948145</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>285.2783409669076</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383447</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>675.0071030383447</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>454.2145238948145</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,16 +6484,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6624,49 +6624,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>941.8533975675258</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V31" t="n">
-        <v>687.168909361639</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>397.7517393246783</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U34" t="n">
-        <v>874.927113122792</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169051</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>330.8254548799445</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>330.8254548799445</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>330.8254548799445</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
@@ -6946,10 +6946,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4244.714639971548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4075.778457043641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4534.131810008508</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4534.131810008508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4244.714639971548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4244.714639971548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4244.714639971548</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,34 +7189,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.010087623275</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141522</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.446367141522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>792.4568162435045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>571.6642370999743</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,34 +7402,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1051.027905301125</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>761.6107352641649</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>761.6107352641649</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.130185042679</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X46" t="n">
-        <v>465.9227641862091</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.130185042679</v>
+        <v>675.007103038344</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>414.5002179180832</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139951</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>104.8749102765742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>176.7176547498447</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.502686290725</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>43.65987261462425</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>20.63789864135373</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>142.2668161885942</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>69.48969635933513</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1067837875399</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>136.4094987750322</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>8.858630999713057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>167.2699136707024</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>111.3486643741929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>66.25702160028601</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.39378677743774</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.98990566424403</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.74616942664306</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.7092009290817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>6.648971703222088</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>27.94407814005706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
       <c r="I2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="L2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147616</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001589</v>
+        <v>-78996.1879400161</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745283</v>
+        <v>510971.6912745286</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745284</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227799</v>
+        <v>83107.19924255651</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194526</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791744</v>
+        <v>608267.2357194525</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.8269791742</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.8269791743</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865814</v>
+        <v>431844.0165268593</v>
       </c>
       <c r="K6" t="n">
-        <v>609241.8269791738</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="L6" t="n">
-        <v>609241.8269791737</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="M6" t="n">
-        <v>474440.8117453366</v>
+        <v>473466.2204856152</v>
       </c>
       <c r="N6" t="n">
-        <v>609241.8269791744</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="O6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="P6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194521</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>111.0429015409125</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.3823369449626</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.5890945853769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>284.5939820565379</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>293.2997400572413</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>1.885271837006968</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>304.9748525936017</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>42.48905394114875</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>182.1034537888979</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551389</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>747.6947913160961</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551034</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>354.1326152325986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>487.142031800311</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318332</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>326.0235748557325</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>227.7313135728785</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3789070.71917785</v>
+        <v>3794009.982026881</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7815592.645458065</v>
+        <v>7815592.645458066</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>243.6401400797705</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>314.675755003559</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.13985960694272</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>175.6477936210116</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.0887386816669</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>109.4422623037125</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>181.1089350724459</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>30.60408762095457</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>14.73664328357141</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>161.4046520073179</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>54.27764738768689</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.92656778835336</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>183.4653217847138</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7644211441605784</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="C2" t="n">
-        <v>474.3790142316151</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>525.2632558086677</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>936.2491605982752</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781315</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2343.549589573795</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>181.3053441250785</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721084</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316967</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>185.3596263316967</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3596263316967</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4141255824932</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>164.4907215210841</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>164.4907215210841</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362301</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>529.7758821321497</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>379.659242719814</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>231.7461491374208</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T25" t="n">
-        <v>1133.095250583071</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U25" t="n">
-        <v>843.9666117966292</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>843.9666117966292</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>843.9666117966292</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>615.9770608986119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,19 +6402,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6624,49 +6624,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765184</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,37 +6925,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7122,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,19 +7359,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861151</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582082</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458724</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.007103038344</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>675.007103038344</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>675.007103038344</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>675.007103038344</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.007103038344</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>133.142098661519</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>271.5007091150059</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>57.18000134477688</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>167.2699136707024</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338585</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.98990566424403</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750242</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>103.0576765518772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6695415024086</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635148</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="L2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147611</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.760514761</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.38821393015979e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26426,13 +26426,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,22 +26441,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.1879400161</v>
+        <v>-78996.18794001589</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745286</v>
+        <v>510971.6912745281</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745283</v>
       </c>
       <c r="E6" t="n">
-        <v>83107.19924255651</v>
+        <v>83984.33137630569</v>
       </c>
       <c r="F6" t="n">
-        <v>608267.2357194526</v>
+        <v>609144.3678532023</v>
       </c>
       <c r="G6" t="n">
-        <v>608267.2357194525</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="H6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="I6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="J6" t="n">
-        <v>431844.0165268593</v>
+        <v>432721.1486606086</v>
       </c>
       <c r="K6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.367853202</v>
       </c>
       <c r="L6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532016</v>
       </c>
       <c r="M6" t="n">
-        <v>473466.2204856152</v>
+        <v>474343.3526193643</v>
       </c>
       <c r="N6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="O6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="P6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532016</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.485267412699738e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.485267412699738e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.485267412699738e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>111.0429015409125</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>99.10841501723598</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.5939820565379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>40.80052673664619</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042785</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>42.48905394114875</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>168.1320336449671</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>125.5668012208405</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.37316471551389</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3926104730631</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
